--- a/chris/Data/Post1790/VA/VA_CD.xlsx
+++ b/chris/Data/Post1790/VA/VA_CD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghall\Documents\Fiscal_History\Loan_Office_Project\Virginia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisliao/Google Drive/Non-Academic Work/Research/Sargent/SPEOC-pt-1/chris/Data/Post1790/VA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF33AA2-D996-4189-80F6-FC5C6B349E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42476FA5-B643-3B43-98D8-E44043AB816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="1740" windowWidth="21720" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2688,6 +2688,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2710,36 +2740,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3098,44 +3098,44 @@
   <dimension ref="A1:AL785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="I389" sqref="I389"/>
+      <selection pane="bottomLeft" activeCell="P375" sqref="P375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="14" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" style="9" customWidth="1"/>
     <col min="14" max="14" width="11" style="29"/>
-    <col min="15" max="15" width="7.25" style="29" customWidth="1"/>
-    <col min="16" max="16" width="7.25" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="9" customWidth="1"/>
     <col min="17" max="19" width="5.83203125" style="9" customWidth="1"/>
     <col min="20" max="20" width="7.83203125" style="9" customWidth="1"/>
     <col min="21" max="22" width="11" style="9"/>
-    <col min="23" max="23" width="6.58203125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="9" customWidth="1"/>
     <col min="24" max="25" width="11" style="32"/>
-    <col min="26" max="26" width="4.58203125" style="9" customWidth="1"/>
+    <col min="26" max="26" width="4.5" style="9" customWidth="1"/>
     <col min="27" max="27" width="11" style="29"/>
-    <col min="28" max="28" width="7.75" style="29" customWidth="1"/>
-    <col min="29" max="33" width="6.08203125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" style="29" customWidth="1"/>
+    <col min="29" max="33" width="6" style="9" customWidth="1"/>
     <col min="34" max="35" width="11" style="16"/>
     <col min="36" max="37" width="8.33203125" style="9" customWidth="1"/>
     <col min="38" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="AK1" s="19"/>
       <c r="AL1" s="19"/>
     </row>
-    <row r="2" spans="1:38" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="AK2" s="19"/>
       <c r="AL2" s="19"/>
     </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
     </row>
-    <row r="4" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="AK4" s="24"/>
       <c r="AL4" s="24"/>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>12</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
     </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
     </row>
-    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="AK8" s="19"/>
       <c r="AL8" s="19"/>
     </row>
-    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>13</v>
       </c>
@@ -3565,19 +3565,19 @@
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="53"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="N10" s="71" t="s">
         <v>764</v>
       </c>
@@ -3592,106 +3592,106 @@
       <c r="W10" s="71"/>
       <c r="X10" s="71"/>
       <c r="Y10" s="71"/>
-      <c r="AA10" s="79" t="s">
+      <c r="AA10" s="63" t="s">
         <v>764</v>
       </c>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-    </row>
-    <row r="11" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65" t="s">
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+    </row>
+    <row r="11" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="N11" s="72" t="s">
+      <c r="L11" s="78"/>
+      <c r="N11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="73" t="s">
+      <c r="O11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="75" t="s">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="T11" s="76" t="s">
+      <c r="T11" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77" t="s">
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="X11" s="78" t="s">
+      <c r="X11" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="Y11" s="78"/>
-      <c r="AA11" s="72" t="s">
+      <c r="Y11" s="70"/>
+      <c r="AA11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="73" t="s">
+      <c r="AB11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="74" t="s">
+      <c r="AC11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="75" t="s">
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="AG11" s="76" t="s">
+      <c r="AG11" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="80" t="s">
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="AK11" s="78" t="s">
+      <c r="AK11" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="AL11" s="78"/>
-    </row>
-    <row r="12" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
+      <c r="AL11" s="70"/>
+    </row>
+    <row r="12" spans="1:38" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
@@ -3704,18 +3704,18 @@
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="69"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="26" t="s">
         <v>0</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="R12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="75"/>
+      <c r="S12" s="67"/>
       <c r="T12" s="27" t="s">
         <v>19</v>
       </c>
@@ -3735,15 +3735,15 @@
       <c r="V12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="77"/>
+      <c r="W12" s="72"/>
       <c r="X12" s="62" t="s">
         <v>18</v>
       </c>
       <c r="Y12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="73"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="65"/>
       <c r="AC12" s="26" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="AE12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AF12" s="75"/>
+      <c r="AF12" s="67"/>
       <c r="AG12" s="27" t="s">
         <v>19</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="AI12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AJ12" s="80"/>
+      <c r="AJ12" s="69"/>
       <c r="AK12" s="62" t="s">
         <v>18</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>1</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>1</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="AK14" s="35"/>
       <c r="AL14" s="35"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>1</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>1</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>1</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="AK17" s="32"/>
       <c r="AL17" s="32"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>1</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>1</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>1</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>1</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="AK21" s="32"/>
       <c r="AL21" s="32"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>1</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>1</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="AK24" s="32"/>
       <c r="AL24" s="32"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>1</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="AK25" s="32"/>
       <c r="AL25" s="32"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>1</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="AK26" s="32"/>
       <c r="AL26" s="32"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>1</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>1</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="AK28" s="32"/>
       <c r="AL28" s="32"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>1</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>1</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="AK30" s="32"/>
       <c r="AL30" s="32"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>1</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>1</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="AK32" s="32"/>
       <c r="AL32" s="32"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -5661,7 +5661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>1</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>1</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>1</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>1</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>1</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
         <v>1</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>1</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>1</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>1</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="AK42" s="32"/>
       <c r="AL42" s="32"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <v>1</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
         <v>1</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>1</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>1</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>1</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>1</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
         <v>1</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
         <v>1</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
         <v>1</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <v>1</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="29">
         <v>1</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
         <v>1</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>1</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <v>1</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
         <v>1</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <v>1</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>1</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <v>1</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -8527,7 +8527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>1</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="AK63" s="32"/>
       <c r="AL63" s="32"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>1</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <v>1</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <v>1</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>1</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>1</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>1</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
         <v>1</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
         <v>25</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="AK71" s="32"/>
       <c r="AL71" s="32"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
         <v>25</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
         <v>25</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>25</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>25</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>25</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>25</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -10004,7 +10004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>25</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>25</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
         <v>25</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
         <v>25</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -10440,7 +10440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
         <v>25</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
         <v>25</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -10687,7 +10687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
         <v>25</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
         <v>25</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
         <v>25</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
         <v>25</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
         <v>25</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
         <v>25</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
         <v>25</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="AK93" s="32"/>
       <c r="AL93" s="32"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
         <v>25</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
         <v>25</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
         <v>25</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
         <v>25</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
         <v>25</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
         <v>25</v>
       </c>
@@ -11903,7 +11903,7 @@
       <c r="AK99" s="32"/>
       <c r="AL99" s="32"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>25</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>25</v>
       </c>
@@ -12078,7 +12078,7 @@
       <c r="AK101" s="32"/>
       <c r="AL101" s="32"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>25</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
         <v>25</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
         <v>25</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
         <v>25</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
         <v>25</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
         <v>25</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
         <v>25</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
         <v>25</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
         <v>25</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
         <v>25</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
         <v>25</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
         <v>25</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
         <v>25</v>
       </c>
@@ -13363,7 +13363,7 @@
       <c r="AK114" s="32"/>
       <c r="AL114" s="32"/>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
         <v>25</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
         <v>25</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
         <v>25</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
         <v>25</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
         <v>25</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
         <v>25</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
         <v>25</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
         <v>25</v>
       </c>
@@ -14129,7 +14129,7 @@
       <c r="AK122" s="32"/>
       <c r="AL122" s="32"/>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
         <v>25</v>
       </c>
@@ -14201,7 +14201,7 @@
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
         <v>25</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
         <v>25</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
         <v>25</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="AK126" s="32"/>
       <c r="AL126" s="32"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
         <v>25</v>
       </c>
@@ -14543,7 +14543,7 @@
       <c r="AK127" s="32"/>
       <c r="AL127" s="32"/>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>25</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>25</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>25</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
         <v>25</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
         <v>25</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
         <v>25</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
         <v>25</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="AK134" s="32"/>
       <c r="AL134" s="32"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
         <v>25</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
         <v>25</v>
       </c>
@@ -15368,7 +15368,7 @@
       <c r="AK136" s="32"/>
       <c r="AL136" s="32"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
         <v>25</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
         <v>25</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
         <v>25</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
         <v>25</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
         <v>25</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
         <v>25</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
         <v>25</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
         <v>25</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
         <v>25</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
         <v>25</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
         <v>25</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
         <v>25</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
         <v>25</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
         <v>25</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
         <v>25</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
         <v>25</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
         <v>25</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
         <v>25</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
         <v>25</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
         <v>25</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
         <v>25</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="29">
         <v>25</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="29">
         <v>25</v>
       </c>
@@ -17583,7 +17583,7 @@
       <c r="AK159" s="36"/>
       <c r="AL159" s="36"/>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="29">
         <v>25</v>
       </c>
@@ -17661,7 +17661,7 @@
       <c r="AK160" s="36"/>
       <c r="AL160" s="36"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="29">
         <v>25</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="29">
         <v>25</v>
       </c>
@@ -17836,7 +17836,7 @@
       <c r="AK162" s="36"/>
       <c r="AL162" s="36"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="29">
         <v>25</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="29">
         <v>25</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="29">
         <v>25</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H166" s="30"/>
       <c r="I166" s="16"/>
       <c r="P166" s="1"/>
@@ -18185,7 +18185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="29">
         <v>25</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="29">
         <v>25</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="29">
         <v>25</v>
       </c>
@@ -18462,7 +18462,7 @@
       <c r="AK169" s="36"/>
       <c r="AL169" s="36"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="29">
         <v>25</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H171" s="15"/>
       <c r="I171" s="16"/>
       <c r="P171" s="1"/>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="29">
         <v>25</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="29">
         <v>25</v>
       </c>
@@ -18788,7 +18788,7 @@
       <c r="AK173" s="36"/>
       <c r="AL173" s="36"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="29">
         <v>25</v>
       </c>
@@ -18860,7 +18860,7 @@
       <c r="AK174" s="36"/>
       <c r="AL174" s="36"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A175" s="29">
         <v>25</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A176" s="29">
         <v>25</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A177" s="29">
         <v>25</v>
       </c>
@@ -19125,7 +19125,7 @@
       <c r="AK177" s="36"/>
       <c r="AL177" s="36"/>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A178" s="29">
         <v>25</v>
       </c>
@@ -19197,7 +19197,7 @@
       <c r="AK178" s="36"/>
       <c r="AL178" s="36"/>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A179" s="29">
         <v>25</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A180" s="29">
         <v>25</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A181" s="29">
         <v>25</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A182" s="29">
         <v>60</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A183" s="29">
         <v>60</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A184" s="29">
         <v>60</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A185" s="29">
         <v>60</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A186" s="29">
         <v>60</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A187" s="29">
         <v>60</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A188" s="29">
         <v>60</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A189" s="29">
         <v>60</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A190" s="29">
         <v>60</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A191" s="29">
         <v>60</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A192" s="29">
         <v>60</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A193" s="29">
         <v>60</v>
       </c>
@@ -20667,7 +20667,7 @@
       <c r="AK193" s="36"/>
       <c r="AL193" s="36"/>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A194" s="29">
         <v>60</v>
       </c>
@@ -20745,7 +20745,7 @@
       <c r="AK194" s="36"/>
       <c r="AL194" s="36"/>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A195" s="29">
         <v>60</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A196" s="29">
         <v>60</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A197" s="29">
         <v>60</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A198" s="29">
         <v>60</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A199" s="29">
         <v>60</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A200" s="29">
         <v>60</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A201" s="29">
         <v>60</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A202" s="29">
         <v>60</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A203" s="29">
         <v>60</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A204" s="29">
         <v>60</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A205" s="29">
         <v>60</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A206" s="29">
         <v>60</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A207" s="29">
         <v>60</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A208" s="29">
         <v>60</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" s="29">
         <v>60</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" s="29">
         <v>60</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" s="29">
         <v>60</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" s="29">
         <v>60</v>
       </c>
@@ -22536,7 +22536,7 @@
       <c r="AK212" s="32"/>
       <c r="AL212" s="32"/>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" s="29">
         <v>60</v>
       </c>
@@ -22613,7 +22613,7 @@
       <c r="AK213" s="32"/>
       <c r="AL213" s="32"/>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" s="29">
         <v>60</v>
       </c>
@@ -22693,7 +22693,7 @@
       <c r="AK214" s="32"/>
       <c r="AL214" s="32"/>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" s="29">
         <v>60</v>
       </c>
@@ -22773,7 +22773,7 @@
       <c r="AK215" s="32"/>
       <c r="AL215" s="32"/>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" s="29">
         <v>60</v>
       </c>
@@ -22873,7 +22873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" s="29">
         <v>60</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" s="29">
         <v>60</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" s="29">
         <v>60</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" s="29">
         <v>60</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" s="29">
         <v>60</v>
       </c>
@@ -23349,7 +23349,7 @@
       <c r="AK221" s="32"/>
       <c r="AL221" s="32"/>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" s="29">
         <v>60</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" s="29">
         <v>60</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" s="29">
         <v>60</v>
       </c>
@@ -23648,7 +23648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A225" s="29">
         <v>60</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A226" s="29">
         <v>60</v>
       </c>
@@ -23825,7 +23825,7 @@
       <c r="AK226" s="32"/>
       <c r="AL226" s="32"/>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A227" s="29">
         <v>60</v>
       </c>
@@ -23905,7 +23905,7 @@
       <c r="AK227" s="32"/>
       <c r="AL227" s="32"/>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A228" s="29">
         <v>60</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A229" s="29">
         <v>60</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A230" s="29">
         <v>60</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A231" s="29">
         <v>60</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A232" s="29">
         <v>60</v>
       </c>
@@ -24392,7 +24392,7 @@
       <c r="AK232" s="32"/>
       <c r="AL232" s="32"/>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A233" s="29">
         <v>60</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A234" s="29">
         <v>60</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A235" s="29">
         <v>60</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A236" s="29">
         <v>60</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H237" s="15"/>
       <c r="I237" s="41"/>
       <c r="P237" s="1"/>
@@ -24838,7 +24838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A238" s="29">
         <v>60</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A239" s="29">
         <v>60</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A240" s="29">
         <v>60</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A241" s="29">
         <v>60</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A242" s="29">
         <v>60</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A243" s="29">
         <v>60</v>
       </c>
@@ -25438,7 +25438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A244" s="29">
         <v>60</v>
       </c>
@@ -25518,7 +25518,7 @@
       <c r="AK244" s="32"/>
       <c r="AL244" s="32"/>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A245" s="29">
         <v>60</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A246" s="29">
         <v>60</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A247" s="29">
         <v>60</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A248" s="29">
         <v>60</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A249" s="29">
         <v>60</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A250" s="29">
         <v>60</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A251" s="29">
         <v>60</v>
       </c>
@@ -26207,7 +26207,7 @@
       <c r="AK251" s="32"/>
       <c r="AL251" s="32"/>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A252" s="29">
         <v>60</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A253" s="29">
         <v>60</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A254" s="29">
         <v>60</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A255" s="29">
         <v>60</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A256" s="29">
         <v>60</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A257" s="29">
         <v>60</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A258" s="29">
         <v>60</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A259" s="29">
         <v>60</v>
       </c>
@@ -27007,7 +27007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A260" s="29">
         <v>60</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H261" s="15"/>
       <c r="I261" s="16"/>
       <c r="P261" s="1"/>
@@ -27153,7 +27153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A262" s="29">
         <v>60</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A263" s="29">
         <v>60</v>
       </c>
@@ -27347,7 +27347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H264" s="15"/>
       <c r="I264" s="16"/>
       <c r="N264" s="29">
@@ -27414,7 +27414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A265" s="29">
         <v>80</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A266" s="29">
         <v>80</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A267" s="29">
         <v>80</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A268" s="29">
         <v>80</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A269" s="29">
         <v>80</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A270" s="29">
         <v>80</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A271" s="29">
         <v>80</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A272" s="29">
         <v>80</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A273" s="29">
         <v>80</v>
       </c>
@@ -28271,7 +28271,7 @@
       <c r="AK273" s="32"/>
       <c r="AL273" s="32"/>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A274" s="29">
         <v>80</v>
       </c>
@@ -28374,7 +28374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A275" s="29">
         <v>80</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A276" s="29">
         <v>80</v>
       </c>
@@ -28577,7 +28577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A277" s="29">
         <v>80</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A278" s="29">
         <v>80</v>
       </c>
@@ -28780,7 +28780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A279" s="29">
         <v>80</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A280" s="29">
         <v>80</v>
       </c>
@@ -28983,7 +28983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A281" s="29">
         <v>80</v>
       </c>
@@ -29086,7 +29086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A282" s="29">
         <v>80</v>
       </c>
@@ -29179,7 +29179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A283" s="29">
         <v>80</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A284" s="29">
         <v>80</v>
       </c>
@@ -29385,7 +29385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A285" s="29">
         <v>80</v>
       </c>
@@ -29488,7 +29488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A286" s="29">
         <v>80</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A287" s="29">
         <v>80</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A288" s="29">
         <v>80</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A289" s="29">
         <v>80</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
@@ -29939,7 +29939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A291" s="29">
         <v>80</v>
       </c>
@@ -30042,7 +30042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A292" s="29">
         <v>80</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A293" s="29">
         <v>80</v>
       </c>
@@ -30239,7 +30239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A294" s="29">
         <v>80</v>
       </c>
@@ -30342,7 +30342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A295" s="29">
         <v>80</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A296" s="29">
         <v>80</v>
       </c>
@@ -30543,7 +30543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A297" s="29">
         <v>80</v>
       </c>
@@ -30620,7 +30620,7 @@
       <c r="AK297" s="32"/>
       <c r="AL297" s="32"/>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A298" s="29">
         <v>80</v>
       </c>
@@ -30700,7 +30700,7 @@
       <c r="AK298" s="32"/>
       <c r="AL298" s="32"/>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A299" s="29">
         <v>80</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A300" s="29">
         <v>80</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A301" s="29">
         <v>80</v>
       </c>
@@ -30935,7 +30935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A302" s="29">
         <v>80</v>
       </c>
@@ -31032,7 +31032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A303" s="29">
         <v>80</v>
       </c>
@@ -31109,7 +31109,7 @@
       <c r="AK303" s="32"/>
       <c r="AL303" s="32"/>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A304" s="29">
         <v>80</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A305" s="29">
         <v>80</v>
       </c>
@@ -31305,7 +31305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N306" s="29">
         <v>72</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A307" s="29">
         <v>80</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A308" s="29">
         <v>80</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A309" s="29">
         <v>80</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A310" s="29">
         <v>80</v>
       </c>
@@ -31777,7 +31777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A311" s="29">
         <v>80</v>
       </c>
@@ -31877,7 +31877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A312" s="29">
         <v>80</v>
       </c>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A313" s="29">
         <v>80</v>
       </c>
@@ -32028,7 +32028,7 @@
       <c r="AK313" s="32"/>
       <c r="AL313" s="32"/>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A314" s="29">
         <v>81</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A315" s="29">
         <v>81</v>
       </c>
@@ -32229,7 +32229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A316" s="29">
         <v>81</v>
       </c>
@@ -32329,7 +32329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A317" s="29">
         <v>81</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A318" s="29">
         <v>81</v>
       </c>
@@ -32505,7 +32505,7 @@
       <c r="AK318" s="32"/>
       <c r="AL318" s="32"/>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
@@ -32550,7 +32550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A320" s="29">
         <v>81</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A321" s="29">
         <v>81</v>
       </c>
@@ -32733,7 +32733,7 @@
       <c r="AK321" s="32"/>
       <c r="AL321" s="32"/>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A322" s="29">
         <v>81</v>
       </c>
@@ -32836,7 +32836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A323" s="29">
         <v>81</v>
       </c>
@@ -32939,7 +32939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
@@ -32984,7 +32984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A325" s="29">
         <v>81</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A326" s="29">
         <v>81</v>
       </c>
@@ -33187,7 +33187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
@@ -33232,7 +33232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A328" s="29">
         <v>81</v>
       </c>
@@ -33309,7 +33309,7 @@
       <c r="AK328" s="32"/>
       <c r="AL328" s="32"/>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A329" s="29">
         <v>81</v>
       </c>
@@ -33412,7 +33412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A330" s="29">
         <v>81</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A331" s="29">
         <v>81</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A332" s="29">
         <v>81</v>
       </c>
@@ -33718,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A333" s="29">
         <v>81</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A334" s="29">
         <v>81</v>
       </c>
@@ -33917,7 +33917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A335" s="29">
         <v>81</v>
       </c>
@@ -34017,7 +34017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A336" s="29">
         <v>81</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A337" s="29">
         <v>81</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A338" s="29">
         <v>81</v>
       </c>
@@ -34306,7 +34306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A339" s="29">
         <v>81</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A340" s="29">
         <v>81</v>
       </c>
@@ -34503,7 +34503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A341" s="29">
         <v>81</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A342" s="29">
         <v>81</v>
       </c>
@@ -34702,7 +34702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A343" s="29">
         <v>81</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A344" s="29">
         <v>81</v>
       </c>
@@ -34891,7 +34891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A345" s="29">
         <v>81</v>
       </c>
@@ -34994,7 +34994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A346" s="29">
         <v>81</v>
       </c>
@@ -35097,7 +35097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A347" s="29">
         <v>94</v>
       </c>
@@ -35200,7 +35200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A348" s="29">
         <v>94</v>
       </c>
@@ -35296,7 +35296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A349" s="29">
         <v>94</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
@@ -35434,7 +35434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
@@ -35476,7 +35476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A352" s="29">
         <v>94</v>
       </c>
@@ -35579,7 +35579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A353" s="29">
         <v>94</v>
       </c>
@@ -35682,7 +35682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
@@ -35726,7 +35726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A355" s="29">
         <v>94</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
@@ -35873,7 +35873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A357" s="29">
         <v>94</v>
       </c>
@@ -35976,7 +35976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A358" s="29">
         <v>94</v>
       </c>
@@ -36053,7 +36053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A359" s="29">
         <v>94</v>
       </c>
@@ -36156,7 +36156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A360" s="29">
         <v>94</v>
       </c>
@@ -36259,7 +36259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A361" s="29">
         <v>94</v>
       </c>
@@ -36362,7 +36362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A362" s="29">
         <v>94</v>
       </c>
@@ -36465,7 +36465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A363" s="29">
         <v>94</v>
       </c>
@@ -36568,7 +36568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A364" s="29">
         <v>94</v>
       </c>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A365" s="29">
         <v>94</v>
       </c>
@@ -36774,7 +36774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A366" s="29">
         <v>94</v>
       </c>
@@ -36877,7 +36877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A367" s="29">
         <v>94</v>
       </c>
@@ -36980,7 +36980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A368" s="29">
         <v>94</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A369" s="29">
         <v>94</v>
       </c>
@@ -37186,7 +37186,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A370" s="29">
         <v>94</v>
       </c>
@@ -37289,7 +37289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
@@ -37333,7 +37333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A372" s="29">
         <v>94</v>
       </c>
@@ -37436,7 +37436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
@@ -37480,7 +37480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A374" s="29">
         <v>94</v>
       </c>
@@ -37583,7 +37583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A375" s="29">
         <v>94</v>
       </c>
@@ -37686,7 +37686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A376" s="29">
         <v>94</v>
       </c>
@@ -37789,7 +37789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A377" s="29">
         <v>94</v>
       </c>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A378" s="29">
         <v>94</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
@@ -38039,7 +38039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A380" s="29">
         <v>94</v>
       </c>
@@ -38136,7 +38136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A381" s="29">
         <v>94</v>
       </c>
@@ -38239,7 +38239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A382" s="29">
         <v>94</v>
       </c>
@@ -38293,7 +38293,7 @@
       <c r="AK382" s="32"/>
       <c r="AL382" s="32"/>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A383" s="29">
         <v>94</v>
       </c>
@@ -38389,7 +38389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A384" s="29">
         <v>94</v>
       </c>
@@ -38492,7 +38492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A385" s="29">
         <v>94</v>
       </c>
@@ -38595,7 +38595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A386" s="29">
         <v>94</v>
       </c>
@@ -38698,7 +38698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A387" s="29">
         <v>94</v>
       </c>
@@ -38794,7 +38794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A388" s="29">
         <v>94</v>
       </c>
@@ -38897,7 +38897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A389" s="29">
         <v>94</v>
       </c>
@@ -39000,7 +39000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A390" s="29">
         <v>94</v>
       </c>
@@ -39103,7 +39103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A391" s="29">
         <v>94</v>
       </c>
@@ -39205,7 +39205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A392" s="29">
         <v>94</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A393" s="29">
         <v>94</v>
       </c>
@@ -39404,7 +39404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A394" s="29">
         <v>94</v>
       </c>
@@ -39502,7 +39502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A395" s="29">
         <v>94</v>
       </c>
@@ -39605,7 +39605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="396" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A396" s="29">
         <v>94</v>
       </c>
@@ -39708,7 +39708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A397" s="29">
         <v>94</v>
       </c>
@@ -39811,7 +39811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A398" s="29">
         <v>94</v>
       </c>
@@ -39914,7 +39914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A399" s="29">
         <v>105</v>
       </c>
@@ -40017,7 +40017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A400" s="29">
         <v>105</v>
       </c>
@@ -40120,7 +40120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A401" s="29">
         <v>105</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A402" s="29">
         <v>105</v>
       </c>
@@ -40318,7 +40318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A403" s="29">
         <v>105</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A404" s="29">
         <v>105</v>
       </c>
@@ -40524,7 +40524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A405" s="29">
         <v>105</v>
       </c>
@@ -40602,7 +40602,7 @@
       <c r="AK405" s="36"/>
       <c r="AL405" s="36"/>
     </row>
-    <row r="406" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A406" s="29">
         <v>105</v>
       </c>
@@ -40707,7 +40707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A407" s="29">
         <v>105</v>
       </c>
@@ -40810,7 +40810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A408" s="29">
         <v>105</v>
       </c>
@@ -40913,7 +40913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A409" s="29">
         <v>105</v>
       </c>
@@ -41008,7 +41008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="410" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A410" s="29">
         <v>105</v>
       </c>
@@ -41111,7 +41111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A411" s="29">
         <v>105</v>
       </c>
@@ -41214,7 +41214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A412" s="29">
         <v>105</v>
       </c>
@@ -41292,7 +41292,7 @@
       <c r="AK412" s="36"/>
       <c r="AL412" s="36"/>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A413" s="29">
         <v>105</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A414" s="29">
         <v>105</v>
       </c>
@@ -41498,7 +41498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="29">
         <v>105</v>
       </c>
@@ -41601,7 +41601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="29">
         <v>105</v>
       </c>
@@ -41704,7 +41704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="29">
         <v>105</v>
       </c>
@@ -41777,7 +41777,7 @@
       <c r="AK417" s="36"/>
       <c r="AL417" s="36"/>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="29">
         <v>105</v>
       </c>
@@ -41850,7 +41850,7 @@
       <c r="AK418" s="36"/>
       <c r="AL418" s="36"/>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="29">
         <v>105</v>
       </c>
@@ -41953,7 +41953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="29">
         <v>105</v>
       </c>
@@ -42056,7 +42056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="421" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A421" s="29">
         <v>105</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A422" s="29">
         <v>105</v>
       </c>
@@ -42262,7 +42262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A423" s="29">
         <v>105</v>
       </c>
@@ -42365,7 +42365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A424" s="29">
         <v>105</v>
       </c>
@@ -42468,7 +42468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="29">
         <v>105</v>
       </c>
@@ -42571,7 +42571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="29">
         <v>105</v>
       </c>
@@ -42674,7 +42674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="29">
         <v>105</v>
       </c>
@@ -42770,7 +42770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="29">
         <v>105</v>
       </c>
@@ -42873,7 +42873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="29">
         <v>105</v>
       </c>
@@ -42979,7 +42979,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="430" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A430" s="29">
         <v>105</v>
       </c>
@@ -43082,7 +43082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A431" s="29">
         <v>105</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A432" s="29">
         <v>105</v>
       </c>
@@ -43289,7 +43289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A433" s="29">
         <v>105</v>
       </c>
@@ -43392,7 +43392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A434" s="29">
         <v>105</v>
       </c>
@@ -43497,7 +43497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="435" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A435" s="29">
         <v>105</v>
       </c>
@@ -43600,7 +43600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="436" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A436" s="29">
         <v>105</v>
       </c>
@@ -43703,7 +43703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A437" s="29">
         <v>105</v>
       </c>
@@ -43806,7 +43806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A438" s="29">
         <v>105</v>
       </c>
@@ -43902,7 +43902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A439" s="29">
         <v>105</v>
       </c>
@@ -43999,7 +43999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A440" s="29">
         <v>105</v>
       </c>
@@ -44102,7 +44102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A441" s="29">
         <v>105</v>
       </c>
@@ -44205,7 +44205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A442" s="29">
         <v>105</v>
       </c>
@@ -44308,7 +44308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="443" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A443" s="29">
         <v>105</v>
       </c>
@@ -44405,7 +44405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A444" s="29">
         <v>105</v>
       </c>
@@ -44508,7 +44508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="445" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A445" s="29">
         <v>105</v>
       </c>
@@ -44611,7 +44611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
@@ -44655,7 +44655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="447" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A447" s="29">
         <v>105</v>
       </c>
@@ -44758,7 +44758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A448" s="29">
         <v>105</v>
       </c>
@@ -44859,7 +44859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="449" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
@@ -44901,7 +44901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="450" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A450" s="29">
         <v>105</v>
       </c>
@@ -44997,7 +44997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="451" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A451" s="29">
         <v>105</v>
       </c>
@@ -45100,7 +45100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
@@ -45140,7 +45140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="453" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
@@ -45184,7 +45184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="454" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
@@ -45228,7 +45228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="455" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
@@ -45272,7 +45272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
@@ -45316,7 +45316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="457" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A457" s="29">
         <v>116</v>
       </c>
@@ -45419,7 +45419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="458" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
@@ -45463,7 +45463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A459" s="29">
         <v>116</v>
       </c>
@@ -45563,7 +45563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="460" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A460" s="29">
         <v>116</v>
       </c>
@@ -45657,7 +45657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A461" s="29">
         <v>116</v>
       </c>
@@ -45757,7 +45757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="462" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
@@ -45801,7 +45801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="463" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A463" s="29">
         <v>116</v>
       </c>
@@ -45901,7 +45901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="464" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A464" s="29">
         <v>116</v>
       </c>
@@ -46001,7 +46001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="465" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A465" s="29">
         <v>116</v>
       </c>
@@ -46098,7 +46098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="466" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
@@ -46142,7 +46142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="467" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A467" s="29">
         <v>116</v>
       </c>
@@ -46235,7 +46235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="468" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A468" s="29">
         <v>116</v>
       </c>
@@ -46332,7 +46332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="469" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A469" s="29">
         <v>116</v>
       </c>
@@ -46432,7 +46432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="470" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
@@ -46476,7 +46476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A471" s="29">
         <v>116</v>
       </c>
@@ -46576,7 +46576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A472" s="29">
         <v>116</v>
       </c>
@@ -46673,7 +46673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A473" s="29">
         <v>116</v>
       </c>
@@ -46770,7 +46770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A474" s="29">
         <v>116</v>
       </c>
@@ -46847,7 +46847,7 @@
       <c r="AK474" s="32"/>
       <c r="AL474" s="32"/>
     </row>
-    <row r="475" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A475" s="29">
         <v>116</v>
       </c>
@@ -46947,7 +46947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="476" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A476" s="29">
         <v>116</v>
       </c>
@@ -47044,7 +47044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="477" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
@@ -47086,7 +47086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="478" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A478" s="29">
         <v>116</v>
       </c>
@@ -47183,7 +47183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="479" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A479" s="29">
         <v>116</v>
       </c>
@@ -47286,7 +47286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="480" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A480" s="29">
         <v>116</v>
       </c>
@@ -47383,7 +47383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="481" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A481" s="29">
         <v>116</v>
       </c>
@@ -47480,7 +47480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A482" s="29">
         <v>116</v>
       </c>
@@ -47577,7 +47577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A483" s="29">
         <v>116</v>
       </c>
@@ -47680,7 +47680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A484" s="29">
         <v>116</v>
       </c>
@@ -47781,7 +47781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="485" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A485" s="29">
         <v>116</v>
       </c>
@@ -47873,7 +47873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
@@ -47917,7 +47917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A487" s="29">
         <v>116</v>
       </c>
@@ -48017,7 +48017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A488" s="29">
         <v>116</v>
       </c>
@@ -48117,7 +48117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A489" s="29">
         <v>116</v>
       </c>
@@ -48210,7 +48210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A490" s="29">
         <v>116</v>
       </c>
@@ -48310,7 +48310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A491" s="29">
         <v>116</v>
       </c>
@@ -48410,7 +48410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A492" s="29">
         <v>116</v>
       </c>
@@ -48510,7 +48510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
@@ -48554,7 +48554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A494" s="29">
         <v>116</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A495" s="29">
         <v>116</v>
       </c>
@@ -48757,7 +48757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A496" s="29">
         <v>116</v>
       </c>
@@ -48854,7 +48854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A497" s="29">
         <v>116</v>
       </c>
@@ -48951,7 +48951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A498" s="29">
         <v>116</v>
       </c>
@@ -49025,7 +49025,7 @@
       <c r="AK498" s="32"/>
       <c r="AL498" s="32"/>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A499" s="29">
         <v>116</v>
       </c>
@@ -49122,7 +49122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A500" s="29">
         <v>116</v>
       </c>
@@ -49219,7 +49219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="501" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A501" s="29">
         <v>116</v>
       </c>
@@ -49293,7 +49293,7 @@
       <c r="AK501" s="32"/>
       <c r="AL501" s="32"/>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A502" s="29">
         <v>116</v>
       </c>
@@ -49395,7 +49395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A503" s="29">
         <v>116</v>
       </c>
@@ -49498,7 +49498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A504" s="29">
         <v>116</v>
       </c>
@@ -49598,7 +49598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A505" s="29">
         <v>116</v>
       </c>
@@ -49698,7 +49698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A506" s="29">
         <v>116</v>
       </c>
@@ -49798,7 +49798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A507" s="29">
         <v>116</v>
       </c>
@@ -49898,7 +49898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A508" s="29">
         <v>116</v>
       </c>
@@ -49995,7 +49995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="509" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P509" s="1"/>
       <c r="Q509" s="1"/>
       <c r="R509" s="1"/>
@@ -50037,7 +50037,7 @@
       </c>
       <c r="AL509" s="32"/>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A510" s="29">
         <v>116</v>
       </c>
@@ -50137,7 +50137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P511" s="1"/>
       <c r="Q511" s="1"/>
       <c r="R511" s="1"/>
@@ -50179,7 +50179,7 @@
       </c>
       <c r="AL511" s="32"/>
     </row>
-    <row r="512" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A512" s="29">
         <v>116</v>
       </c>
@@ -50279,7 +50279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A513" s="29">
         <v>116</v>
       </c>
@@ -50379,7 +50379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="514" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A514" s="29">
         <v>116</v>
       </c>
@@ -50479,7 +50479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="515" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A515" s="29">
         <v>116</v>
       </c>
@@ -50575,7 +50575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="516" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A516" s="29">
         <v>134</v>
       </c>
@@ -50678,7 +50678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="517" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A517" s="29">
         <v>134</v>
       </c>
@@ -50778,7 +50778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A518" s="29">
         <v>134</v>
       </c>
@@ -50878,7 +50878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="519" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A519" s="29">
         <v>134</v>
       </c>
@@ -50981,7 +50981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="520" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A520" s="29">
         <v>134</v>
       </c>
@@ -51088,7 +51088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="521" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A521" s="29">
         <v>134</v>
       </c>
@@ -51188,7 +51188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="522" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A522" s="29">
         <v>134</v>
       </c>
@@ -51285,7 +51285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="523" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A523" s="29">
         <v>134</v>
       </c>
@@ -51385,7 +51385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A524" s="29">
         <v>134</v>
       </c>
@@ -51485,7 +51485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A525" s="29">
         <v>134</v>
       </c>
@@ -51582,7 +51582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A526" s="29">
         <v>134</v>
       </c>
@@ -51671,7 +51671,7 @@
       </c>
       <c r="AL526" s="32"/>
     </row>
-    <row r="527" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P527" s="1"/>
       <c r="Q527" s="1"/>
       <c r="R527" s="1"/>
@@ -51715,7 +51715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="528" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A528" s="29">
         <v>134</v>
       </c>
@@ -51818,7 +51818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A529" s="29">
         <v>134</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A530" s="29">
         <v>134</v>
       </c>
@@ -52018,7 +52018,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A531" s="29">
         <v>134</v>
       </c>
@@ -52121,7 +52121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A532" s="29">
         <v>134</v>
       </c>
@@ -52221,7 +52221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A533" s="29">
         <v>134</v>
       </c>
@@ -52321,7 +52321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A534" s="29">
         <v>134</v>
       </c>
@@ -52418,7 +52418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="535" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A535" s="29">
         <v>134</v>
       </c>
@@ -52516,7 +52516,7 @@
       </c>
       <c r="AL535" s="32"/>
     </row>
-    <row r="536" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A536" s="29">
         <v>134</v>
       </c>
@@ -52616,7 +52616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="537" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A537" s="29">
         <v>134</v>
       </c>
@@ -52716,7 +52716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A538" s="29">
         <v>134</v>
       </c>
@@ -52816,7 +52816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A539" s="29">
         <v>134</v>
       </c>
@@ -52921,7 +52921,7 @@
       </c>
       <c r="AL539" s="32"/>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N540" s="29">
         <v>127</v>
       </c>
@@ -52993,7 +52993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="541" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N541" s="29">
         <v>127</v>
       </c>
@@ -53065,7 +53065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A542" s="29">
         <v>134</v>
       </c>
@@ -53165,7 +53165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A543" s="29">
         <v>134</v>
       </c>
@@ -53270,7 +53270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A544" s="29">
         <v>134</v>
       </c>
@@ -53370,7 +53370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A545" s="29">
         <v>134</v>
       </c>
@@ -53470,7 +53470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A546" s="29">
         <v>134</v>
       </c>
@@ -53547,7 +53547,7 @@
       <c r="AK546" s="32"/>
       <c r="AL546" s="32"/>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A547" s="29">
         <v>134</v>
       </c>
@@ -53650,7 +53650,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A548" s="29">
         <v>134</v>
       </c>
@@ -53754,7 +53754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A549" s="29">
         <v>134</v>
       </c>
@@ -53851,7 +53851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A550" s="29">
         <v>134</v>
       </c>
@@ -53928,7 +53928,7 @@
       <c r="AK550" s="32"/>
       <c r="AL550" s="32"/>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A551" s="29">
         <v>134</v>
       </c>
@@ -54022,7 +54022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.2">
       <c r="I552" s="29"/>
       <c r="P552" s="1"/>
       <c r="Q552" s="1"/>
@@ -54067,7 +54067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A553" s="29">
         <v>134</v>
       </c>
@@ -54141,7 +54141,7 @@
       <c r="AK553" s="32"/>
       <c r="AL553" s="32"/>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A554" s="29">
         <v>134</v>
       </c>
@@ -54215,7 +54215,7 @@
       <c r="AK554" s="32"/>
       <c r="AL554" s="32"/>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A555" s="29">
         <v>134</v>
       </c>
@@ -54315,7 +54315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="556" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A556" s="29">
         <v>134</v>
       </c>
@@ -54415,7 +54415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A557" s="29">
         <v>134</v>
       </c>
@@ -54492,7 +54492,7 @@
       <c r="AK557" s="32"/>
       <c r="AL557" s="32"/>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A558" s="29">
         <v>134</v>
       </c>
@@ -54569,7 +54569,7 @@
       <c r="AK558" s="32"/>
       <c r="AL558" s="32"/>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A559" s="29">
         <v>134</v>
       </c>
@@ -54646,7 +54646,7 @@
       <c r="AK559" s="32"/>
       <c r="AL559" s="32"/>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A560" s="29">
         <v>134</v>
       </c>
@@ -54749,7 +54749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A561" s="29">
         <v>134</v>
       </c>
@@ -54849,7 +54849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A562" s="29">
         <v>134</v>
       </c>
@@ -54949,7 +54949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A563" s="29">
         <v>134</v>
       </c>
@@ -55029,7 +55029,7 @@
       <c r="AK563" s="32"/>
       <c r="AL563" s="32"/>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P564" s="1"/>
       <c r="Q564" s="1"/>
       <c r="R564" s="1"/>
@@ -55073,7 +55073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P565" s="1"/>
       <c r="Q565" s="1"/>
       <c r="R565" s="1"/>
@@ -55117,7 +55117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A566" s="29">
         <v>134</v>
       </c>
@@ -55217,7 +55217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A567" s="29">
         <v>134</v>
       </c>
@@ -55320,7 +55320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A568" s="29">
         <v>136</v>
       </c>
@@ -55423,7 +55423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P569" s="1"/>
       <c r="Q569" s="1"/>
       <c r="R569" s="1"/>
@@ -55462,7 +55462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A570" s="29">
         <v>136</v>
       </c>
@@ -55556,7 +55556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A571" s="29">
         <v>136</v>
       </c>
@@ -55656,7 +55656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A572" s="29">
         <v>137</v>
       </c>
@@ -55756,7 +55756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AA573" s="31">
         <v>122</v>
       </c>
@@ -55787,7 +55787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A574" s="29">
         <v>143</v>
       </c>
@@ -55887,7 +55887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P575" s="1"/>
       <c r="Q575" s="1"/>
       <c r="R575" s="1"/>
@@ -55931,7 +55931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A576" s="29">
         <v>143</v>
       </c>
@@ -56031,7 +56031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="577" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A577" s="29">
         <v>143</v>
       </c>
@@ -56128,7 +56128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A578" s="29">
         <v>143</v>
       </c>
@@ -56205,7 +56205,7 @@
       <c r="AK578" s="32"/>
       <c r="AL578" s="32"/>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A579" s="29">
         <v>143</v>
       </c>
@@ -56253,7 +56253,7 @@
       <c r="AK579" s="32"/>
       <c r="AL579" s="32"/>
     </row>
-    <row r="580" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A580" s="29">
         <v>143</v>
       </c>
@@ -56327,7 +56327,7 @@
       <c r="AK580" s="32"/>
       <c r="AL580" s="32"/>
     </row>
-    <row r="581" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P581" s="1"/>
       <c r="Q581" s="1"/>
       <c r="R581" s="1"/>
@@ -56371,7 +56371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="582" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A582" s="29">
         <v>143</v>
       </c>
@@ -56414,7 +56414,7 @@
       <c r="V582" s="29"/>
       <c r="W582" s="32"/>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A583" s="29">
         <v>152</v>
       </c>
@@ -56517,7 +56517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="584" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A584" s="29">
         <v>152</v>
       </c>
@@ -56617,7 +56617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A585" s="29">
         <v>152</v>
       </c>
@@ -56705,7 +56705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A586" s="29">
         <v>152</v>
       </c>
@@ -56808,7 +56808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="587" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A587" s="29">
         <v>152</v>
       </c>
@@ -56898,7 +56898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A588" s="29">
         <v>152</v>
       </c>
@@ -56986,7 +56986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A589" s="29">
         <v>152</v>
       </c>
@@ -57082,7 +57082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A590" s="29">
         <v>152</v>
       </c>
@@ -57170,7 +57170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="591" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A591" s="29">
         <v>152</v>
       </c>
@@ -57258,7 +57258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A592" s="29">
         <v>152</v>
       </c>
@@ -57361,7 +57361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P593" s="1"/>
       <c r="Q593" s="1"/>
       <c r="R593" s="1"/>
@@ -57405,7 +57405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A594" s="29">
         <v>152</v>
       </c>
@@ -57501,7 +57501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N595" s="29">
         <v>142</v>
       </c>
@@ -57546,7 +57546,7 @@
       <c r="AK595" s="32"/>
       <c r="AL595" s="32"/>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A596" s="29">
         <v>152</v>
       </c>
@@ -57639,7 +57639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A597" s="29">
         <v>152</v>
       </c>
@@ -57739,7 +57739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A598" s="29">
         <v>152</v>
       </c>
@@ -57827,7 +57827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P599" s="1"/>
       <c r="Q599" s="1"/>
       <c r="R599" s="1"/>
@@ -57866,7 +57866,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A600" s="29">
         <v>152</v>
       </c>
@@ -57946,7 +57946,7 @@
       <c r="AK600" s="32"/>
       <c r="AL600" s="32"/>
     </row>
-    <row r="601" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A601" s="29">
         <v>152</v>
       </c>
@@ -58043,7 +58043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A602" s="29">
         <v>152</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A603" s="29">
         <v>152</v>
       </c>
@@ -58246,7 +58246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="604" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N604" s="29">
         <v>142</v>
       </c>
@@ -58314,7 +58314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A605" s="29">
         <v>152</v>
       </c>
@@ -58406,7 +58406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A606" s="29">
         <v>152</v>
       </c>
@@ -58491,7 +58491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A607" s="29">
         <v>152</v>
       </c>
@@ -58594,7 +58594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="608" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A608" s="29">
         <v>152</v>
       </c>
@@ -58681,7 +58681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A609" s="29">
         <v>152</v>
       </c>
@@ -58791,7 +58791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A610" s="29">
         <v>152</v>
       </c>
@@ -58888,7 +58888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="611" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A611" s="29">
         <v>157</v>
       </c>
@@ -58931,7 +58931,7 @@
       <c r="V611" s="29"/>
       <c r="W611" s="32"/>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A612" s="29">
         <v>157</v>
       </c>
@@ -58974,7 +58974,7 @@
       <c r="V612" s="29"/>
       <c r="W612" s="32"/>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A613" s="29">
         <v>157</v>
       </c>
@@ -59014,7 +59014,7 @@
       <c r="V613" s="29"/>
       <c r="W613" s="32"/>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A614" s="29">
         <v>157</v>
       </c>
@@ -59088,7 +59088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A615" s="29">
         <v>157</v>
       </c>
@@ -59162,7 +59162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A616" s="29">
         <v>157</v>
       </c>
@@ -59236,7 +59236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="617" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A617" s="29">
         <v>171</v>
       </c>
@@ -59339,7 +59339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="618" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A618" s="29">
         <v>171</v>
       </c>
@@ -59427,7 +59427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A619" s="29">
         <v>171</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A620" s="29">
         <v>171</v>
       </c>
@@ -59630,7 +59630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="621" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A621" s="29">
         <v>171</v>
       </c>
@@ -59733,7 +59733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A622" s="29">
         <v>171</v>
       </c>
@@ -59827,7 +59827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P623" s="1"/>
       <c r="Q623" s="1"/>
       <c r="R623" s="1"/>
@@ -59871,7 +59871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A624" s="29">
         <v>171</v>
       </c>
@@ -59936,7 +59936,7 @@
       <c r="AK624" s="32"/>
       <c r="AL624" s="32"/>
     </row>
-    <row r="625" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A625" s="29">
         <v>171</v>
       </c>
@@ -60024,7 +60024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="626" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P626" s="1"/>
       <c r="Q626" s="1"/>
       <c r="R626" s="1"/>
@@ -60068,7 +60068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A627" s="29">
         <v>171</v>
       </c>
@@ -60146,7 +60146,7 @@
       <c r="AK627" s="32"/>
       <c r="AL627" s="32"/>
     </row>
-    <row r="628" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A628" s="29">
         <v>171</v>
       </c>
@@ -60253,7 +60253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="629" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A629" s="29">
         <v>171</v>
       </c>
@@ -60354,7 +60354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A630" s="29">
         <v>171</v>
       </c>
@@ -60424,7 +60424,7 @@
       <c r="AK630" s="32"/>
       <c r="AL630" s="32"/>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A631" s="29">
         <v>171</v>
       </c>
@@ -60509,7 +60509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="632" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A632" s="29">
         <v>171</v>
       </c>
@@ -60588,7 +60588,7 @@
       <c r="AK632" s="32"/>
       <c r="AL632" s="32"/>
     </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A633" s="29">
         <v>171</v>
       </c>
@@ -60673,7 +60673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A634" s="29">
         <v>171</v>
       </c>
@@ -60764,7 +60764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A635" s="29">
         <v>171</v>
       </c>
@@ -60867,7 +60867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A636" s="29">
         <v>171</v>
       </c>
@@ -60964,7 +60964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A637" s="29">
         <v>171</v>
       </c>
@@ -61061,7 +61061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A638" s="29">
         <v>171</v>
       </c>
@@ -61164,7 +61164,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="639" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A639" s="29">
         <v>171</v>
       </c>
@@ -61264,7 +61264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="640" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P640" s="1"/>
       <c r="Q640" s="1"/>
       <c r="R640" s="1"/>
@@ -61305,7 +61305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="641" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A641" s="29">
         <v>171</v>
       </c>
@@ -61396,7 +61396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="642" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A642" s="29">
         <v>171</v>
       </c>
@@ -61475,7 +61475,7 @@
       <c r="AK642" s="32"/>
       <c r="AL642" s="32"/>
     </row>
-    <row r="643" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A643" s="29">
         <v>171</v>
       </c>
@@ -61541,7 +61541,7 @@
       <c r="AK643" s="32"/>
       <c r="AL643" s="32"/>
     </row>
-    <row r="644" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P644" s="1"/>
       <c r="Q644" s="1"/>
       <c r="R644" s="1"/>
@@ -61585,7 +61585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A645" s="29">
         <v>171</v>
       </c>
@@ -61688,7 +61688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="646" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A646" s="29">
         <v>171</v>
       </c>
@@ -61788,7 +61788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="647" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N647" s="29">
         <v>152</v>
       </c>
@@ -61831,7 +61831,7 @@
       <c r="AK647" s="32"/>
       <c r="AL647" s="32"/>
     </row>
-    <row r="648" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A648" s="29">
         <v>171</v>
       </c>
@@ -61931,7 +61931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="649" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A649" s="29">
         <v>171</v>
       </c>
@@ -62028,7 +62028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A650" s="29">
         <v>171</v>
       </c>
@@ -62126,7 +62126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="651" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A651" s="29">
         <v>171</v>
       </c>
@@ -62229,7 +62229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="652" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N652" s="29">
         <v>152</v>
       </c>
@@ -62274,7 +62274,7 @@
       <c r="AK652" s="32"/>
       <c r="AL652" s="32"/>
     </row>
-    <row r="653" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A653" s="29">
         <v>171</v>
       </c>
@@ -62368,7 +62368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="654" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A654" s="29">
         <v>171</v>
       </c>
@@ -62456,7 +62456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="655" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A655" s="29">
         <v>189</v>
       </c>
@@ -62544,7 +62544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A656" s="29">
         <v>189</v>
       </c>
@@ -62624,7 +62624,7 @@
       <c r="AK656" s="32"/>
       <c r="AL656" s="32"/>
     </row>
-    <row r="657" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A657" s="29">
         <v>189</v>
       </c>
@@ -62709,7 +62709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="658" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A658" s="29">
         <v>189</v>
       </c>
@@ -62797,7 +62797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="659" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A659" s="29">
         <v>189</v>
       </c>
@@ -62885,7 +62885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P660" s="1"/>
       <c r="Q660" s="1"/>
       <c r="R660" s="1"/>
@@ -62924,7 +62924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="661" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A661" s="29">
         <v>189</v>
       </c>
@@ -63004,7 +63004,7 @@
       <c r="AK661" s="32"/>
       <c r="AL661" s="32"/>
     </row>
-    <row r="662" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A662" s="29">
         <v>189</v>
       </c>
@@ -63098,7 +63098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A663" s="29">
         <v>189</v>
       </c>
@@ -63198,7 +63198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="664" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A664" s="29">
         <v>189</v>
       </c>
@@ -63283,7 +63283,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="665" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A665" s="29">
         <v>189</v>
       </c>
@@ -63383,7 +63383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A666" s="29">
         <v>189</v>
       </c>
@@ -63476,7 +63476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A667" s="31">
         <v>189</v>
       </c>
@@ -63564,7 +63564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A668" s="31">
         <v>189</v>
       </c>
@@ -63667,7 +63667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="669" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A669" s="39"/>
       <c r="B669" s="39"/>
       <c r="C669"/>
@@ -63729,7 +63729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="670" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A670" s="31">
         <v>1</v>
       </c>
@@ -63834,7 +63834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="671" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A671" s="31">
         <v>1</v>
       </c>
@@ -63939,7 +63939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="672" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A672" s="31">
         <v>1</v>
       </c>
@@ -64041,7 +64041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="673" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A673" s="31">
         <v>1</v>
       </c>
@@ -64146,7 +64146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="674" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A674" s="31">
         <v>1</v>
       </c>
@@ -64251,7 +64251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A675" s="31">
         <v>1</v>
       </c>
@@ -64356,7 +64356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="676" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A676" s="31">
         <v>1</v>
       </c>
@@ -64461,7 +64461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="677" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A677" s="31">
         <v>1</v>
       </c>
@@ -64563,7 +64563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="678" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A678" s="31">
         <v>1</v>
       </c>
@@ -64621,7 +64621,7 @@
       <c r="AK678" s="32"/>
       <c r="AL678" s="32"/>
     </row>
-    <row r="679" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A679" s="31">
         <v>2</v>
       </c>
@@ -64723,7 +64723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="680" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A680" s="31">
         <v>2</v>
       </c>
@@ -64803,7 +64803,7 @@
       <c r="AK680" s="33"/>
       <c r="AL680" s="33"/>
     </row>
-    <row r="681" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A681" s="31">
         <v>2</v>
       </c>
@@ -64908,7 +64908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="682" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A682" s="31">
         <v>2</v>
       </c>
@@ -65011,7 +65011,7 @@
       </c>
       <c r="AL682" s="33"/>
     </row>
-    <row r="683" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A683" s="31">
         <v>2</v>
       </c>
@@ -65116,7 +65116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="684" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A684" s="31">
         <v>2</v>
       </c>
@@ -65221,7 +65221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="685" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A685" s="31">
         <v>2</v>
       </c>
@@ -65304,7 +65304,7 @@
       </c>
       <c r="AL685" s="33"/>
     </row>
-    <row r="686" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A686" s="31">
         <v>2</v>
       </c>
@@ -65407,7 +65407,7 @@
       </c>
       <c r="AL686" s="33"/>
     </row>
-    <row r="687" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A687" s="31">
         <v>3</v>
       </c>
@@ -65512,7 +65512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="688" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A688" s="31">
         <v>3</v>
       </c>
@@ -65595,7 +65595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="689" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A689" s="31">
         <v>3</v>
       </c>
@@ -65676,7 +65676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="690" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A690" s="31">
         <v>3</v>
       </c>
@@ -65781,7 +65781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="691" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A691" s="31">
         <v>3</v>
       </c>
@@ -65886,7 +65886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A692" s="31">
         <v>3</v>
       </c>
@@ -65991,7 +65991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="693" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A693" s="31">
         <v>3</v>
       </c>
@@ -66049,7 +66049,7 @@
       <c r="AK693" s="32"/>
       <c r="AL693" s="32"/>
     </row>
-    <row r="694" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A694" s="31">
         <v>4</v>
       </c>
@@ -66110,7 +66110,7 @@
       <c r="AK694" s="32"/>
       <c r="AL694" s="32"/>
     </row>
-    <row r="695" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A695" s="31">
         <v>4</v>
       </c>
@@ -66212,7 +66212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="696" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A696" s="31">
         <v>4</v>
       </c>
@@ -66290,7 +66290,7 @@
       <c r="AK696" s="33"/>
       <c r="AL696" s="33"/>
     </row>
-    <row r="697" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A697" s="31">
         <v>4</v>
       </c>
@@ -66348,7 +66348,7 @@
       <c r="AK697" s="33"/>
       <c r="AL697" s="33"/>
     </row>
-    <row r="698" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A698" s="31">
         <v>4</v>
       </c>
@@ -66451,7 +66451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="699" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A699" s="31">
         <v>4</v>
       </c>
@@ -66555,7 +66555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="700" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A700" s="31"/>
       <c r="B700" s="31"/>
       <c r="H700" s="31"/>
@@ -66609,7 +66609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="701" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A701" s="31">
         <v>4</v>
       </c>
@@ -66714,7 +66714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="702" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A702" s="31">
         <v>4</v>
       </c>
@@ -66819,7 +66819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="703" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A703" s="31">
         <v>4</v>
       </c>
@@ -66903,7 +66903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="704" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A704" s="31">
         <v>5</v>
       </c>
@@ -66963,7 +66963,7 @@
       <c r="AK704" s="32"/>
       <c r="AL704" s="32"/>
     </row>
-    <row r="705" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A705" s="31">
         <v>5</v>
       </c>
@@ -67068,7 +67068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="706" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A706" s="31">
         <v>5</v>
       </c>
@@ -67173,7 +67173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="707" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A707" s="31">
         <v>5</v>
       </c>
@@ -67278,7 +67278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="708" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A708" s="31"/>
       <c r="B708" s="31"/>
       <c r="H708" s="31"/>
@@ -67332,7 +67332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="709" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A709" s="31">
         <v>5</v>
       </c>
@@ -67437,7 +67437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="710" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A710" s="31">
         <v>5</v>
       </c>
@@ -67542,7 +67542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="711" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A711" s="31">
         <v>5</v>
       </c>
@@ -67647,7 +67647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="712" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A712" s="31">
         <v>5</v>
       </c>
@@ -67728,7 +67728,7 @@
       <c r="AK712" s="33"/>
       <c r="AL712" s="33"/>
     </row>
-    <row r="713" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A713" s="31">
         <v>5</v>
       </c>
@@ -67833,7 +67833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="714" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A714" s="31">
         <v>5</v>
       </c>
@@ -67938,7 +67938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="715" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A715" s="31">
         <v>5</v>
       </c>
@@ -68041,7 +68041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="716" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A716" s="31">
         <v>5</v>
       </c>
@@ -68146,7 +68146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="717" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A717" s="31"/>
       <c r="B717" s="31"/>
       <c r="H717" s="31"/>
@@ -68200,7 +68200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A718" s="31"/>
       <c r="B718" s="31"/>
       <c r="H718" s="31"/>
@@ -68248,7 +68248,7 @@
       <c r="AK718" s="33"/>
       <c r="AL718" s="33"/>
     </row>
-    <row r="719" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A719" s="45">
         <v>6</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A720" s="45">
         <v>6</v>
       </c>
@@ -68455,7 +68455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A721" s="45">
         <v>6</v>
       </c>
@@ -68540,7 +68540,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="722" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A722" s="45"/>
       <c r="B722" s="45"/>
       <c r="H722" s="31"/>
@@ -68594,7 +68594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="723" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A723" s="45">
         <v>6</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="724" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A724" s="45">
         <v>6</v>
       </c>
@@ -68804,7 +68804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="725" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A725" s="45">
         <v>6</v>
       </c>
@@ -68906,7 +68906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="726" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A726" s="31">
         <v>142</v>
       </c>
@@ -69011,7 +69011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="727" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A727" s="31">
         <v>142</v>
       </c>
@@ -69067,7 +69067,7 @@
       <c r="AK727" s="33"/>
       <c r="AL727" s="33"/>
     </row>
-    <row r="728" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A728" s="31">
         <v>142</v>
       </c>
@@ -69172,7 +69172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="729" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A729" s="31">
         <v>142</v>
       </c>
@@ -69277,7 +69277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="730" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A730" s="31"/>
       <c r="B730" s="31"/>
       <c r="H730" s="31"/>
@@ -69322,7 +69322,7 @@
       </c>
       <c r="AL730" s="32"/>
     </row>
-    <row r="731" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A731" s="31">
         <v>142</v>
       </c>
@@ -69421,7 +69421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="732" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A732" s="31">
         <v>142</v>
       </c>
@@ -69526,7 +69526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="733" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A733" s="31">
         <v>142</v>
       </c>
@@ -69628,7 +69628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="734" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A734" s="31">
         <v>142</v>
       </c>
@@ -69678,7 +69678,7 @@
       <c r="AK734" s="33"/>
       <c r="AL734" s="33"/>
     </row>
-    <row r="735" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A735" s="31">
         <v>142</v>
       </c>
@@ -69728,7 +69728,7 @@
       <c r="AK735" s="33"/>
       <c r="AL735" s="33"/>
     </row>
-    <row r="736" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A736" s="31">
         <v>142</v>
       </c>
@@ -69833,7 +69833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="737" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A737" s="31">
         <v>142</v>
       </c>
@@ -69938,7 +69938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="738" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A738" s="31">
         <v>143</v>
       </c>
@@ -70043,7 +70043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="739" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A739" s="31">
         <v>143</v>
       </c>
@@ -70148,7 +70148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A740" s="31">
         <v>143</v>
       </c>
@@ -70253,7 +70253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="741" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A741" s="31">
         <v>143</v>
       </c>
@@ -70358,7 +70358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="742" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A742" s="31">
         <v>143</v>
       </c>
@@ -70463,7 +70463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A743" s="31">
         <v>143</v>
       </c>
@@ -70568,7 +70568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A744" s="31">
         <v>143</v>
       </c>
@@ -70671,7 +70671,7 @@
       </c>
       <c r="AL744" s="32"/>
     </row>
-    <row r="745" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A745" s="31">
         <v>143</v>
       </c>
@@ -70776,7 +70776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="746" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A746" s="31">
         <v>143</v>
       </c>
@@ -70881,7 +70881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="747" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A747" s="31">
         <v>143</v>
       </c>
@@ -70986,7 +70986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="748" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A748" s="31">
         <v>143</v>
       </c>
@@ -71089,7 +71089,7 @@
       </c>
       <c r="AL748" s="32"/>
     </row>
-    <row r="749" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A749" s="31">
         <v>144</v>
       </c>
@@ -71162,7 +71162,7 @@
       </c>
       <c r="AL749" s="32"/>
     </row>
-    <row r="750" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A750" s="31">
         <v>144</v>
       </c>
@@ -71213,7 +71213,7 @@
       <c r="AK750" s="32"/>
       <c r="AL750" s="32"/>
     </row>
-    <row r="751" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A751" s="31">
         <v>144</v>
       </c>
@@ -71318,7 +71318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="752" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A752" s="31">
         <v>144</v>
       </c>
@@ -71423,7 +71423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="753" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A753" s="31">
         <v>144</v>
       </c>
@@ -71526,7 +71526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="754" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A754" s="31">
         <v>144</v>
       </c>
@@ -71631,7 +71631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="755" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A755" s="31"/>
       <c r="B755" s="31"/>
       <c r="H755" s="31"/>
@@ -71679,7 +71679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="756" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A756" s="31">
         <v>144</v>
       </c>
@@ -71784,7 +71784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="757" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A757" s="31">
         <v>144</v>
       </c>
@@ -71889,7 +71889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A758" s="31">
         <v>144</v>
       </c>
@@ -71994,7 +71994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="759" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A759" s="31">
         <v>144</v>
       </c>
@@ -72099,7 +72099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="760" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A760" s="31">
         <v>144</v>
       </c>
@@ -72203,7 +72203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A761" s="31"/>
       <c r="B761" s="31"/>
       <c r="F761" s="30"/>
@@ -72242,7 +72242,7 @@
       <c r="AK761" s="32"/>
       <c r="AL761" s="32"/>
     </row>
-    <row r="762" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A762" s="31">
         <v>145</v>
       </c>
@@ -72347,7 +72347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="763" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A763" s="31">
         <v>145</v>
       </c>
@@ -72452,7 +72452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="764" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A764" s="31">
         <v>145</v>
       </c>
@@ -72557,7 +72557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A765" s="31">
         <v>145</v>
       </c>
@@ -72662,7 +72662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="766" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A766" s="31">
         <v>145</v>
       </c>
@@ -72759,7 +72759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="767" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A767" s="31">
         <v>145</v>
       </c>
@@ -72864,7 +72864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="768" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A768" s="31">
         <v>145</v>
       </c>
@@ -72936,7 +72936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="769" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A769" s="31">
         <v>145</v>
       </c>
@@ -73037,7 +73037,7 @@
       </c>
       <c r="AL769" s="32"/>
     </row>
-    <row r="770" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A770" s="31">
         <v>145</v>
       </c>
@@ -73142,7 +73142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="771" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A771" s="31">
         <v>145</v>
       </c>
@@ -73195,7 +73195,7 @@
       <c r="AK771" s="32"/>
       <c r="AL771" s="32"/>
     </row>
-    <row r="772" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A772" s="31">
         <v>145</v>
       </c>
@@ -73248,7 +73248,7 @@
       <c r="AK772" s="32"/>
       <c r="AL772" s="32"/>
     </row>
-    <row r="773" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A773" s="31">
         <v>145</v>
       </c>
@@ -73351,7 +73351,7 @@
       </c>
       <c r="AL773" s="32"/>
     </row>
-    <row r="774" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A774" s="31">
         <v>145</v>
       </c>
@@ -73410,7 +73410,7 @@
       <c r="AK774" s="32"/>
       <c r="AL774" s="32"/>
     </row>
-    <row r="775" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A775" s="31"/>
       <c r="B775" s="31"/>
       <c r="H775" s="31"/>
@@ -73459,7 +73459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="776" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A776" s="31"/>
       <c r="B776" s="31"/>
       <c r="H776" s="31"/>
@@ -73508,7 +73508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="777" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A777" s="31"/>
       <c r="B777" s="31"/>
       <c r="H777" s="31"/>
@@ -73558,7 +73558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="778" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A778" s="31">
         <v>146</v>
       </c>
@@ -73663,52 +73663,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="779" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A779" s="31"/>
       <c r="B779" s="31"/>
     </row>
-    <row r="780" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A780" s="31"/>
       <c r="B780" s="31"/>
     </row>
-    <row r="781" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A781" s="31"/>
       <c r="B781" s="31"/>
     </row>
-    <row r="782" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A782" s="31"/>
       <c r="B782" s="31"/>
     </row>
-    <row r="783" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A783" s="31"/>
       <c r="B783" s="31"/>
     </row>
-    <row r="784" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A784" s="31"/>
       <c r="B784" s="31"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="31"/>
       <c r="B785" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AA10:AL10"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="N10:Y10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="I11:I12"/>
@@ -73718,6 +73702,22 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="N10:Y10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AA10:AL10"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AL11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
